--- a/data-raw/PrototypeAnalysis(8).xlsx
+++ b/data-raw/PrototypeAnalysis(8).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
   <si>
     <t>Some candidates</t>
   </si>
@@ -423,9 +423,6 @@
     <t>Under 25</t>
   </si>
   <si>
-    <t>Note that I start actives at age 20 even though some are younger, to make things easier for the model</t>
-  </si>
-  <si>
     <t>Note that this is a monthly annuity so the prototype preparation program will need to multiply by 12.</t>
   </si>
   <si>
@@ -436,6 +433,12 @@
   </si>
   <si>
     <t>PA-PSERS.SalGrowHist</t>
+  </si>
+  <si>
+    <t>NOTE THAT I will have to adjust data to ensure that ea is in the 20:70 range</t>
+  </si>
+  <si>
+    <t>NOTE THAT (a) I adjusted midage for the FIRST group to be 20, and (b) I STILL will have to adjust data to ensure that ea is in the 20:70 range</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -567,6 +570,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1302,7 +1306,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1314,7 @@
         <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1322,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2192,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3322,7 +3326,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4563,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,6 +4585,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E2" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
@@ -5397,6 +5412,46 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="9">
+        <f>+E30*E31</f>
+        <v>167452340</v>
+      </c>
+      <c r="F28" s="9">
+        <f>+F30*F31</f>
+        <v>2463980</v>
+      </c>
+      <c r="G28" s="9">
+        <f>+E28+F28</f>
+        <v>169916320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G29" s="22">
+        <f>+G28/(E30+F30)</f>
+        <v>24040.226372382571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="18">
+        <v>6983</v>
+      </c>
+      <c r="F30" s="17">
+        <v>85</v>
+      </c>
+      <c r="G30" s="8">
+        <f>+E30+F30</f>
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="19">
+        <v>23980</v>
+      </c>
+      <c r="F31" s="19">
+        <v>28988</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="D51:D69">
@@ -5414,7 +5469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
